--- a/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,12 +484,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,27 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -570,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +585,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -590,7 +595,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -607,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -622,7 +627,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -639,22 +644,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>DS303</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -671,22 +676,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -701,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,17 +764,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**DS303**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -779,12 +784,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2/1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -806,32 +811,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**DS302**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -863,7 +868,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -900,27 +905,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**DS302**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -957,7 +962,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -994,47 +999,3930 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**DS303**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Total Courses: 5</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Complete: 0</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lectures: 10</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 3, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/6 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 60.0%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 33.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
@@ -1522,16 +1522,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1760,16 +1760,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2522,16 +2522,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2658,16 +2658,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C002]</t>
+          <t>DS302 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L404]</t>
+          <t>CS307 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C002]</t>
+          <t>DS302 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L404]</t>
+          <t>CS307 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C004, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004, C303</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C305, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, C104, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C004, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C004, C303</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004, C305, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004, C102, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004, C104, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4370,21 +4370,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -4429,17 +4429,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4453,7 +4453,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4606,17 +4606,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4630,7 +4630,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -4665,17 +4665,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4689,7 +4689,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -4714,22 +4714,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4748,12 +4748,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4807,12 +4807,12 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -4832,27 +4832,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4865,17 +4865,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -4895,27 +4895,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4928,17 +4928,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -4958,27 +4958,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4991,17 +4991,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -5021,27 +5021,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -5084,27 +5084,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5115,15 +5115,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5143,27 +5147,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5174,15 +5178,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -5202,25 +5210,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
@@ -5232,12 +5244,12 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5269,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5288,19 +5300,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5320,27 +5328,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5358,12 +5366,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5383,27 +5391,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5421,12 +5429,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5446,27 +5454,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5484,12 +5492,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5517,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5542,7 +5550,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -5552,7 +5560,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -5572,27 +5580,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5603,19 +5611,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5640,22 +5644,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5666,19 +5670,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5887,27 +5887,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -5950,27 +5950,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5983,17 +5983,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6013,27 +6013,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6046,17 +6046,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6076,27 +6076,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6109,17 +6109,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6139,27 +6139,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6177,12 +6177,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6202,27 +6202,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6265,27 +6265,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -6328,12 +6328,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6359,19 +6359,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6392,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6422,19 +6418,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -6459,20 +6451,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -6483,17 +6479,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -6518,22 +6514,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6544,15 +6540,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -6577,22 +6577,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6603,15 +6603,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6635,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6664,7 +6668,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -6674,7 +6678,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -6694,12 +6698,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6737,7 +6741,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6757,12 +6761,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6800,7 +6804,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6820,12 +6824,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6863,7 +6867,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6883,12 +6887,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6926,7 +6930,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6950,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6989,7 +6993,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7009,12 +7013,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7042,7 +7046,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -7052,7 +7056,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -7072,27 +7076,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7103,19 +7107,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -7135,27 +7135,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7166,19 +7166,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -7198,27 +7194,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7229,3204 +7225,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>5</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>5</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>5</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>5</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>5</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>5</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>5</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>5</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>5</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>5</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>5</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>5</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>5</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>5</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>5</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>5</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>5</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>5</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>5</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,54 +481,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,91 +545,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C004]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,27 +641,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L407]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -673,32 +673,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [C002]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C302]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C301]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L407]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C103]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -713,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,12 +835,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -786,16 +850,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC368, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -816,31 +880,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366</t>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -853,51 +917,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -914,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,26 +981,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -997,26 +1016,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1032,26 +1051,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1072,7 +1091,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1102,26 +1121,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1137,26 +1156,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1172,26 +1191,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1212,7 +1231,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1247,7 +1266,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1282,7 +1301,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1304,111 +1323,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1590,16 +1504,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.5</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1624,16 +1538,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1692,16 +1606,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1760,16 +1674,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2168,16 +2082,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2202,16 +2116,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2658,16 +2572,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2686,7 +2600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,54 +2643,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2793,91 +2707,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C004]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2889,27 +2803,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L105]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2921,32 +2835,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C302]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C301]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C103]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -2989,165 +2967,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C001, C003</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C102</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004, C104</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3157,14 +3147,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3174,14 +3164,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3198,75 +3188,71 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3276,43 +3262,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C102</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3325,7 +3303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,7 +3401,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C101, C301</t>
         </is>
       </c>
     </row>
@@ -3470,39 +3448,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302, C101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3517,7 +3495,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C101, C103</t>
         </is>
       </c>
     </row>
@@ -3618,92 +3596,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>L407, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[WARN] 6 issues</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3720,7 +3651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3778,26 +3709,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Proj+AC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3805,42 +3734,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302, MINOR: Cybersecurity, DS303...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Proj+AC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3848,23 +3775,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial), DS302, DS302 (Tutorial)...</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C301</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3872,18 +3799,16 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="C4" t="n">
+        <v>50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3895,12 +3820,53 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Proj</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3989,6 +3955,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4011,22 +3982,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -4040,12 +4011,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4070,22 +4046,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -4099,12 +4075,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4129,22 +4110,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -4158,12 +4139,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4188,22 +4174,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4217,12 +4203,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4242,27 +4233,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4276,12 +4267,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4301,27 +4297,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4335,12 +4331,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4360,12 +4361,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4375,16 +4376,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -4394,12 +4395,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4430,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4434,12 +4440,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4453,12 +4459,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4489,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4488,17 +4499,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4512,12 +4523,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4537,27 +4553,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4571,12 +4587,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4617,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4606,21 +4627,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -4630,12 +4651,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4681,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4665,17 +4691,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Physics Lab</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Physics Equipment</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4689,12 +4715,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C301</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4714,12 +4745,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4742,18 +4773,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4809,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4801,18 +4837,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4832,27 +4873,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4860,22 +4901,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4895,27 +4937,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4923,22 +4965,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4958,27 +5001,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4986,22 +5029,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5065,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5045,18 +5089,14 @@
         </is>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5064,7 +5104,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5084,27 +5129,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>library</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers, Books</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5112,22 +5157,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5147,27 +5193,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5175,22 +5221,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5210,12 +5257,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5238,18 +5285,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5269,12 +5321,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5297,18 +5349,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5328,27 +5385,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5361,17 +5418,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5391,27 +5453,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5424,17 +5486,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5454,12 +5521,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5487,7 +5554,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -5497,7 +5564,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5517,27 +5589,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5550,17 +5622,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5657,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5611,15 +5688,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5639,29 +5725,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5670,15 +5752,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5698,27 +5789,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5736,12 +5827,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>CS463</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5761,27 +5857,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5799,12 +5895,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>CS308</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5925,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5868,6 +5969,11 @@
       <c r="M32" t="inlineStr">
         <is>
           <t>DS301</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5887,27 +5993,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5925,12 +6031,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>CS366</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5955,24 +6066,20 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -5983,17 +6090,22 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6018,22 +6130,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6046,17 +6158,22 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6198,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6109,7 +6226,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6119,7 +6236,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6144,22 +6266,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6172,17 +6294,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6212,17 +6339,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6240,12 +6367,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6275,17 +6407,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6303,12 +6435,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6333,17 +6470,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6359,15 +6496,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6387,22 +6533,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -6418,15 +6564,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6601,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6479,7 +6634,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -6489,7 +6644,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6509,29 +6669,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -6542,17 +6698,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6582,17 +6743,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6610,12 +6771,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6645,17 +6811,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6673,12 +6839,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6874,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6731,7 +6902,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -6741,7 +6912,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6766,22 +6942,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6794,17 +6970,22 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6834,17 +7015,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6862,12 +7043,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6897,19 +7083,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -6925,12 +7107,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6960,17 +7147,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6988,12 +7175,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7023,17 +7215,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7051,12 +7243,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7278,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7107,15 +7304,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7135,27 +7341,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7166,74 +7372,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7248,7 +7404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7487,7 +7643,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7544,7 +7700,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7593,63 +7749,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7729,7 +7828,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7750,11 +7849,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 3, Elective: 3</t>
+          <t>Core: 3, Elective: 2</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7875,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/6 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7793,12 +7892,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>4/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 25.0%</t>
         </is>
       </c>
     </row>
@@ -7815,12 +7914,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>31.1%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 60.0%, B: 0.0%</t>
+          <t>A: 62.2%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7842,7 +7941,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 33.0/100</t>
+          <t>Score: 33.3/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
@@ -2977,7 +2977,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C102</t>
+          <t>C001, C004, C104</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C002, C004, C101</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C004, C101</t>
+          <t>C003, C102</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C003, C102</t>
+          <t>C002, C101, C104</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C004, C104</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C003, C101, C102</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002, C102</t>
+          <t>C001, C004, C104</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C002, C004, C101</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C002, C003, C102</t>
+          <t>C002, C101, C104</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5463,17 +5463,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5531,17 +5531,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5675,11 +5675,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5695,7 +5691,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5735,15 +5731,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5799,12 +5799,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -5867,17 +5867,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5935,17 +5935,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6011,11 +6011,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -6031,7 +6027,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6071,15 +6067,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6135,17 +6135,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -6203,17 +6203,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -6276,14 +6276,10 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -6299,7 +6295,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6339,17 +6335,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6367,7 +6363,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6407,12 +6403,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -6435,7 +6431,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6543,12 +6539,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -6571,7 +6567,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -6611,19 +6607,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -6639,7 +6631,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -6679,15 +6671,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -6703,7 +6699,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -6743,12 +6739,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -6771,7 +6767,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -6811,17 +6807,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6839,7 +6835,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -6879,17 +6875,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6907,7 +6903,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -6955,11 +6951,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -6975,7 +6967,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -7023,11 +7015,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -7043,7 +7031,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -7083,15 +7071,19 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -7107,7 +7099,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -7175,7 +7167,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -7243,7 +7235,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -7283,17 +7275,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7311,7 +7303,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -7351,17 +7343,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7379,7 +7371,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [L403]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,12 +550,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [L403]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C101]</t>
+          <t>DS302 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C302]</t>
+          <t>DS303 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C301]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C103]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,31 +835,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366</t>
+          <t>EC368, DE351, EC358</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -880,43 +880,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>A &amp; B (Common)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -933,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,26 +1026,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1016,26 +1061,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1051,26 +1096,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1091,7 +1136,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1121,26 +1166,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1156,26 +1201,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1191,26 +1236,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1231,7 +1276,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1266,7 +1311,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1301,7 +1346,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1323,6 +1368,111 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1406,16 +1556,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1504,16 +1654,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1538,16 +1688,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1606,16 +1756,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1708,16 +1858,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1980,16 +2130,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2082,16 +2232,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2116,16 +2266,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2184,16 +2334,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2402,16 +2552,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2648,27 +2798,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -2680,22 +2830,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [L403]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2712,12 +2862,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [L403]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2776,7 +2926,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2808,7 +2958,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C101]</t>
+          <t>DS302 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2845,7 +2995,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C004]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2855,7 +3005,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C004]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2872,12 +3022,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C302]</t>
+          <t>DS303 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C301]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2887,7 +3037,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C103]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2904,27 +3054,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2967,177 +3117,165 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C004, C104</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C004, C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C102</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C101, C104</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C101, C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3147,14 +3285,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3164,14 +3302,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3181,78 +3319,82 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C004, C104</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002, C004, C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3262,35 +3404,43 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C002, C101, C104</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3298,6 +3448,401 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**DS302**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C004, L207, C001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**DS303**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C004, C304, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B3**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**CS307**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C004, L106, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3314,559 +3859,300 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Faculty</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lect/Tuts/Week</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Labs/Week</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Combined Class</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Allocation</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**DS302**</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3-1-2-0-5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101, C301</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**DS303**</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307, DS303, DS302</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C302, C101</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101, C103</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**SUMMARY**</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Total Courses: 5</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Complete: 0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>CS307, DS303</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Room Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Sessions</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sections</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Courses Assigned</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Courses</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Utilization (Sessions/Day)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Proj+AC</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>17</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DS302, MINOR: Cybersecurity, DS303...</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C103</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Proj+AC</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Proj</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Proj</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3881,7 +4167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3917,47 +4203,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3987,42 +4283,46 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4051,42 +4351,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4115,42 +4423,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>DS303</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4174,47 +4490,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4238,47 +4558,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4302,47 +4630,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4361,52 +4693,56 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4430,47 +4766,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4494,47 +4838,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4558,47 +4910,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4622,47 +4982,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>DS302 (Lab)</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4686,47 +5054,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Physics Lab</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Physics Equipment</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4745,52 +5117,56 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4814,47 +5190,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4878,47 +5262,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4937,52 +5325,56 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5006,47 +5398,55 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5075,42 +5475,50 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5139,42 +5547,50 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Computers, Books</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C103</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5203,42 +5619,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5267,42 +5687,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5331,42 +5755,46 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5395,46 +5823,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>C104</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5463,46 +5899,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5531,46 +5975,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5599,46 +6051,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5667,42 +6127,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5731,46 +6203,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5799,46 +6279,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5867,46 +6355,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5935,46 +6431,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6003,42 +6507,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6067,46 +6583,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6135,46 +6659,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6203,46 +6735,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6271,42 +6811,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6335,46 +6887,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6403,46 +6963,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6471,46 +7039,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6539,46 +7115,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6607,42 +7191,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6671,46 +7267,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6739,46 +7343,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6807,46 +7419,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6875,46 +7495,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6943,42 +7571,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7007,42 +7647,54 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7071,46 +7723,54 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7139,46 +7799,54 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7207,46 +7875,54 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7275,46 +7951,54 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7343,46 +8027,54 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7396,7 +8088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7635,7 +8327,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7692,55 +8384,112 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>3/0/0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2/1/0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0/0/0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[WARN] PARTIAL</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7820,7 +8569,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7841,11 +8590,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 3, Elective: 2</t>
+          <t>Core: 3, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -7867,7 +8616,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/5 courses fully compliant</t>
+          <t>0/6 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7884,12 +8633,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4/16</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 25.0%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -7906,12 +8655,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31.1%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 62.2%, B: 0.0%</t>
+          <t>A: 68.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7933,7 +8682,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 33.3/100</t>
+          <t>Score: 34.3/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C304]</t>
+          <t>DS303 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1722,16 +1722,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2334,16 +2334,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2368,16 +2368,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C304]</t>
+          <t>DS303 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L207, C001</t>
+          <t>C004, C001, L106</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, C304, L403</t>
+          <t>C004, L403, C102</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, L106, L403</t>
+          <t>C004, C305, L207</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
+          <t>MINOR: Cybersecurity, DS302 (Tutorial), MINOR: Generative Ai...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307, DS303, DS302</t>
+          <t>DS302, CS307, DS303</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3987,7 +3987,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4030,26 +4030,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4061,19 +4061,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4116,22 +4116,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4143,16 +4143,59 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307, DS303</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4621,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4592,7 +4635,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4944,7 +4987,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5016,7 +5059,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5413,7 +5456,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5432,7 +5475,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5504,7 +5547,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5576,7 +5619,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5828,12 +5871,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5856,7 +5899,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5932,7 +5975,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5990,7 +6033,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -6008,7 +6051,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6066,7 +6109,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -6084,7 +6127,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6284,17 +6327,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6312,7 +6355,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6360,19 +6403,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -6388,7 +6427,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6436,12 +6475,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6464,7 +6503,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6522,7 +6561,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6540,7 +6579,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6588,17 +6627,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6616,7 +6655,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6664,19 +6703,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -6692,7 +6727,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6740,12 +6775,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6768,7 +6803,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6826,7 +6861,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6844,7 +6879,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6892,12 +6927,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6920,7 +6955,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6996,7 +7031,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7054,7 +7089,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -7072,7 +7107,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7130,7 +7165,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -7148,7 +7183,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7348,17 +7383,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7376,7 +7411,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7424,19 +7459,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -7452,7 +7483,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7500,12 +7531,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7528,7 +7559,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7586,7 +7617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7604,7 +7635,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7652,12 +7683,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7680,7 +7711,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7756,7 +7787,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7814,7 +7845,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7832,7 +7863,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7890,7 +7921,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -7908,7 +7939,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8166,12 +8197,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8191,12 +8222,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -8569,7 +8600,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8633,12 +8664,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -9815,7 +9846,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Not Scheduled (Error)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9825,7 +9856,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -10477,7 +10508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11164,16 +11195,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Environmental Studies</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -11185,43 +11216,43 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -11253,19 +11284,19 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -11301,19 +11332,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Siddharth</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -11349,19 +11380,19 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Pramod</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -11397,19 +11428,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Pramod</t>
+          <t>Pavan Kumar</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Graphs and Social Networks</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -11445,19 +11476,19 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Pavan Kumar</t>
+          <t>Utkarsh K</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Graphs and Social Networks</t>
+          <t>Advanced Algorithms</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -11493,19 +11524,19 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Utkarsh K</t>
+          <t>Suvadip</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Advanced Algorithms</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -11541,19 +11572,19 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Suvadip</t>
+          <t>Manjunath K V</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -11589,19 +11620,19 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -11637,19 +11668,19 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Cryptography &amp; Security</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -11685,19 +11716,19 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Rajendra Hegadi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cryptography &amp; Security</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -11733,19 +11764,19 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Rajendra Hegadi</t>
+          <t>Sandesh P</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>AI in Biomedical Engineering</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -11780,54 +11811,6 @@
         </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AI in Biomedical Engineering</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
         <is>
           <t>Sibasankar Padhy</t>
         </is>

--- a/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C104]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [L403]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS303 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C102]</t>
+          <t>DS303 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -1556,16 +1556,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>41.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1790,16 +1790,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1858,16 +1858,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2334,16 +2334,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2368,16 +2368,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2798,27 +2798,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -2830,22 +2830,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C104]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [L403]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS303 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C102]</t>
+          <t>DS303 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3054,27 +3054,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C001, L106</t>
+          <t>C104, L207, L403, C001</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L403, C102</t>
+          <t>L403, C304, C001</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C305, L207</t>
+          <t>L207, C102, C001</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3928,42 +3928,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, DS302 (Tutorial), MINOR: Generative Ai...</t>
+          <t>CS307, DS302 (Tutorial), DS303</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3971,23 +3971,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DS302, CS307, DS303</t>
+          <t>MINOR: Generative Ai, MINOR: Design, CS307...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4073,7 +4073,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4092,46 +4092,46 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302 (Lab), CS307 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4143,59 +4143,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302, DS303</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4331,15 +4288,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -4351,7 +4312,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4399,17 +4360,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4423,7 +4384,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4471,19 +4432,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -4495,7 +4452,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4621,7 +4578,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4635,7 +4592,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4683,15 +4640,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -4703,7 +4664,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4751,15 +4712,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -4771,7 +4736,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4819,17 +4784,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4843,7 +4808,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4987,7 +4952,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5059,7 +5024,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5107,15 +5072,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -5127,7 +5096,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5175,15 +5144,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -5195,7 +5168,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5243,17 +5216,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5267,7 +5240,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5315,15 +5288,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -5335,7 +5312,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5383,15 +5360,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5403,7 +5384,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5451,19 +5432,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -5475,7 +5452,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5667,15 +5644,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -5687,7 +5668,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5735,15 +5716,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -5755,7 +5740,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5803,15 +5788,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -5823,7 +5812,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5871,12 +5860,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5899,7 +5888,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5975,7 +5964,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6051,7 +6040,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6203,7 +6192,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6279,7 +6268,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6327,17 +6316,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6355,7 +6344,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6403,15 +6392,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -6427,7 +6420,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6475,12 +6468,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6503,7 +6496,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6579,7 +6572,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6627,17 +6620,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6655,7 +6648,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6703,15 +6696,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -6727,7 +6724,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6775,12 +6772,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6803,7 +6800,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6879,7 +6876,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6927,12 +6924,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6955,7 +6952,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7031,7 +7028,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7107,7 +7104,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7259,7 +7256,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7335,7 +7332,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7383,17 +7380,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7411,7 +7408,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7459,15 +7456,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -7483,7 +7484,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7531,12 +7532,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7559,7 +7560,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7635,7 +7636,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7683,12 +7684,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7711,7 +7712,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7787,7 +7788,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7863,7 +7864,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8015,7 +8016,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8091,7 +8092,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8600,7 +8601,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8664,12 +8665,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
